--- a/exercises/lecture 3/build_ch3_PaintPrimer.xlsx
+++ b/exercises/lecture 3/build_ch3_PaintPrimer.xlsx
@@ -8,24 +8,67 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hebpu\Code_KAMK\K25\JAMK\BusinessAnalytics_Resprictive\exercises\lecture 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222A51B7-FC22-4266-85A1-9259589964A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51F30CA-9727-462C-A795-1BFEB99E0D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" tabRatio="726" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operational Data" sheetId="4" r:id="rId1"/>
     <sheet name="PivotTable" sheetId="42" r:id="rId2"/>
     <sheet name="CC" sheetId="43" r:id="rId3"/>
-    <sheet name="LPModel" sheetId="44" r:id="rId4"/>
+    <sheet name="Answer Report 2" sheetId="48" r:id="rId4"/>
+    <sheet name="Sensitivity Report 2" sheetId="49" r:id="rId5"/>
+    <sheet name="Limits Report 2" sheetId="50" r:id="rId6"/>
+    <sheet name="LPModel" sheetId="44" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="maxd">#REF!</definedName>
     <definedName name="rename_products">#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">LPModel!$C$2:$C$49</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">LPModel!$C$2:$C$49</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">LPModel!$C$2:$C$49</definedName>
+    <definedName name="solver_lhs3" localSheetId="6" hidden="1">LPModel!$I$5</definedName>
+    <definedName name="solver_lhs4" localSheetId="6" hidden="1">LPModel!$J$5</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">LPModel!$H$5</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">LPModel!$H$2</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">LPModel!$I$2</definedName>
+    <definedName name="solver_rhs3" localSheetId="6" hidden="1">LPModel!$J$2</definedName>
+    <definedName name="solver_rhs4" localSheetId="6" hidden="1">LPModel!$K$2</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
     <definedName name="themaxD">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="314">
   <si>
     <t>Raw Materials Cost</t>
   </si>
@@ -246,18 +289,760 @@
   <si>
     <t>Available Machine hours</t>
   </si>
+  <si>
+    <t>Microsoft Excel 16.0 Answer Report</t>
+  </si>
+  <si>
+    <t>Worksheet: [build_ch3_PaintPrimer.xlsx]LPModel</t>
+  </si>
+  <si>
+    <t>Result: Solver found a solution.  All Constraints and optimality conditions are satisfied.</t>
+  </si>
+  <si>
+    <t>Solver Engine</t>
+  </si>
+  <si>
+    <t>Engine: Simplex LP</t>
+  </si>
+  <si>
+    <t>Iterations: 14 Subproblems: 0</t>
+  </si>
+  <si>
+    <t>Solver Options</t>
+  </si>
+  <si>
+    <t>Max Time Unlimited,  Iterations Unlimited, Precision 0,000001, Use Automatic Scaling</t>
+  </si>
+  <si>
+    <t>Max Subproblems Unlimited, Max Integer Sols Unlimited, Integer Tolerance 1%, Assume NonNegative</t>
+  </si>
+  <si>
+    <t>Objective Cell (Max)</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Original Value</t>
+  </si>
+  <si>
+    <t>Final Value</t>
+  </si>
+  <si>
+    <t>Variable Cells</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Cell Value</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>$H$5</t>
+  </si>
+  <si>
+    <t>BEHR PRO + SEALER-327TL Total Profit</t>
+  </si>
+  <si>
+    <t>$C$2</t>
+  </si>
+  <si>
+    <t>BEHR AERO-269LC Decision Variables</t>
+  </si>
+  <si>
+    <t>Contin</t>
+  </si>
+  <si>
+    <t>$C$3</t>
+  </si>
+  <si>
+    <t>BEHR AERO-B41 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$4</t>
+  </si>
+  <si>
+    <t>BEHR AERO-B82 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$5</t>
+  </si>
+  <si>
+    <t>BEHR PRO + SEALER-327TL Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$6</t>
+  </si>
+  <si>
+    <t>BEHR PRO + SEALER-B42 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$7</t>
+  </si>
+  <si>
+    <t>BEHR PRO + SEALER-B86HD Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$8</t>
+  </si>
+  <si>
+    <t>BEHR PRO-268TL Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$9</t>
+  </si>
+  <si>
+    <t>BEHR PRO-B40 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$10</t>
+  </si>
+  <si>
+    <t>BEHR PRO-B81 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$11</t>
+  </si>
+  <si>
+    <t>BEHR-258TL Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$12</t>
+  </si>
+  <si>
+    <t>BEHR-B39 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$13</t>
+  </si>
+  <si>
+    <t>BEHR-B80N Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$14</t>
+  </si>
+  <si>
+    <t>GILDEN PREMIUM-86LTORG Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$15</t>
+  </si>
+  <si>
+    <t>GILDEN PREMIUM-B64 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$16</t>
+  </si>
+  <si>
+    <t>GLIDEN PRO + SEALER-207TL Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$17</t>
+  </si>
+  <si>
+    <t>GLIDEN PRO + SEALER-B29 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$18</t>
+  </si>
+  <si>
+    <t>GLIDEN PRO + SEALER-B76 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$19</t>
+  </si>
+  <si>
+    <t>GLIDEN PRO-186L Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$20</t>
+  </si>
+  <si>
+    <t>GLIDEN PRO-B128 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$21</t>
+  </si>
+  <si>
+    <t>GLIDEN PRO-B70 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$22</t>
+  </si>
+  <si>
+    <t>GLIDEN-184TL Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$23</t>
+  </si>
+  <si>
+    <t>GLIDEN-B127 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$24</t>
+  </si>
+  <si>
+    <t>GLIDEN-B69 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$25</t>
+  </si>
+  <si>
+    <t>KILZ AERO-206TL Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$26</t>
+  </si>
+  <si>
+    <t>KILZ AERO-B131 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$27</t>
+  </si>
+  <si>
+    <t>KILZ AERO-B74 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$28</t>
+  </si>
+  <si>
+    <t>KILZ PREMIUM-234TL Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$29</t>
+  </si>
+  <si>
+    <t>KILZ PREMIUM-B37 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$30</t>
+  </si>
+  <si>
+    <t>KILZ PREMIUM-B79 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$31</t>
+  </si>
+  <si>
+    <t>KILZ PRO-192LT Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$32</t>
+  </si>
+  <si>
+    <t>KILZ PRO-B129 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$33</t>
+  </si>
+  <si>
+    <t>KILZ PRO-B72 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$34</t>
+  </si>
+  <si>
+    <t>KILZ-163TL Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$35</t>
+  </si>
+  <si>
+    <t>KILZ2-166TL Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$36</t>
+  </si>
+  <si>
+    <t>KILZ2-B115 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$37</t>
+  </si>
+  <si>
+    <t>KILZ2-B66 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$38</t>
+  </si>
+  <si>
+    <t>KILZ-86TL Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$39</t>
+  </si>
+  <si>
+    <t>KILZ-B65 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$40</t>
+  </si>
+  <si>
+    <t>ZINSSER PREMIUM-86L Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$41</t>
+  </si>
+  <si>
+    <t>ZINSSER PREMIUM-B61 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$42</t>
+  </si>
+  <si>
+    <t>ZINSSER PRO-69TL Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$43</t>
+  </si>
+  <si>
+    <t>ZINSSER PRO-B53 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$44</t>
+  </si>
+  <si>
+    <t>ZINSSER PRO-B86HY Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$45</t>
+  </si>
+  <si>
+    <t>ZINSSER SEALER-82C Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$46</t>
+  </si>
+  <si>
+    <t>ZINSSER SEALER-B54 Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$47</t>
+  </si>
+  <si>
+    <t>ZINSSER-182TLD Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$48</t>
+  </si>
+  <si>
+    <t>ZINSSER-B126F Decision Variables</t>
+  </si>
+  <si>
+    <t>$C$49</t>
+  </si>
+  <si>
+    <t>ZINSSER-B67 Decision Variables</t>
+  </si>
+  <si>
+    <t>$I$5</t>
+  </si>
+  <si>
+    <t>BEHR PRO + SEALER-327TL Machine Hours</t>
+  </si>
+  <si>
+    <t>$I$5&lt;=$J$2</t>
+  </si>
+  <si>
+    <t>Binding</t>
+  </si>
+  <si>
+    <t>$J$5</t>
+  </si>
+  <si>
+    <t>BEHR PRO + SEALER-327TL Raw Materials Purchases</t>
+  </si>
+  <si>
+    <t>$J$5&lt;=$K$2</t>
+  </si>
+  <si>
+    <t>Not Binding</t>
+  </si>
+  <si>
+    <t>$C$2&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$3&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$4&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$5&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$6&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$7&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$8&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$9&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$10&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$11&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$12&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$13&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$14&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$15&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$16&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$17&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$18&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$19&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$20&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$21&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$22&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$23&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$24&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$25&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$26&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$27&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$28&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$29&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$30&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$31&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$32&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$33&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$34&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$35&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$36&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$37&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$38&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$39&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$40&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$41&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$42&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$43&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$44&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$45&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$46&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$47&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$48&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$49&lt;=$H$2</t>
+  </si>
+  <si>
+    <t>$C$2&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$3&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$4&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$5&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$6&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$7&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$8&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$9&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$10&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$11&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$12&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$13&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$14&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$15&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$16&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$17&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$18&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$19&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$20&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$21&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$22&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$23&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$24&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$25&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$26&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$27&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$28&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$29&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$30&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$31&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$32&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$33&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$34&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$35&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$36&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$37&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$38&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$39&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$40&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$41&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$42&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$43&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$44&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$45&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$46&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$47&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$48&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>$C$49&gt;=$I$2</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Allowable</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>R.H. Side</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Limits Report</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Report Created: 14.12.2024 13.31.27</t>
+  </si>
+  <si>
+    <t>Solution Time: 0,032 Seconds.</t>
+  </si>
+  <si>
+    <t>Report Created: 14.12.2024 13.31.28</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="168" formatCode="&quot;€&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +1061,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -313,7 +1106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -389,14 +1182,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -406,29 +1248,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -448,7 +1290,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -528,10 +1387,10 @@
     <cacheField name="Production Week" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12"/>
     </cacheField>
-    <cacheField name="Processing Time (in hours) per Gallon" numFmtId="167">
+    <cacheField name="Processing Time (in hours) per Gallon" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.9"/>
     </cacheField>
-    <cacheField name="Raw Materials Cost" numFmtId="169">
+    <cacheField name="Raw Materials Cost" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="8.94"/>
     </cacheField>
   </cacheFields>
@@ -4005,7 +4864,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D28D09F1-CCB5-4620-A7DF-55A7DBABA00F}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D28D09F1-CCB5-4620-A7DF-55A7DBABA00F}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -4062,8 +4921,8 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="167" showAll="0"/>
-    <pivotField dataField="1" numFmtId="169" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -4229,8 +5088,8 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Average of Processing Time (in hours) per Gallon" fld="2" subtotal="average" baseField="0" baseItem="0" numFmtId="167"/>
-    <dataField name="Average of Raw Materials Cost" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="169"/>
+    <dataField name="Average of Processing Time (in hours) per Gallon" fld="2" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Average of Raw Materials Cost" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4529,11 +5388,48 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{B9E90DB3-0697-4A96-97EF-42CD7D28E5AC}">
+  <we:reference id="wa200005271" version="2.5.5.0" store="fi-FI" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200005271" version="2.5.5.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_AI_TABLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_FILL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_LIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_ASK</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_FORMAT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_EXTRACT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_TRANSLATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_CHOICE</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6317"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E49"/>
     </sheetView>
   </sheetViews>
@@ -37211,11 +38107,5443 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0109BE2A-BE96-4263-8163-80F97E81E9F9}">
+  <dimension ref="A1:G170"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="30">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="E16" s="30">
+        <v>92358.641169097406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="31">
+        <v>914.53201970444275</v>
+      </c>
+      <c r="E21" s="31">
+        <v>914.53201970444275</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="31">
+        <v>200</v>
+      </c>
+      <c r="E22" s="31">
+        <v>200</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="31">
+        <v>200</v>
+      </c>
+      <c r="E23" s="31">
+        <v>200</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="31">
+        <v>200</v>
+      </c>
+      <c r="E24" s="31">
+        <v>200</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E25" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="31">
+        <v>200</v>
+      </c>
+      <c r="E27" s="31">
+        <v>200</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="31">
+        <v>200</v>
+      </c>
+      <c r="E28" s="31">
+        <v>200</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="31">
+        <v>200</v>
+      </c>
+      <c r="E29" s="31">
+        <v>200</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E30" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="31">
+        <v>200</v>
+      </c>
+      <c r="E31" s="31">
+        <v>200</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="31">
+        <v>200</v>
+      </c>
+      <c r="E33" s="31">
+        <v>200</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="31">
+        <v>200</v>
+      </c>
+      <c r="E34" s="31">
+        <v>200</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="31">
+        <v>200</v>
+      </c>
+      <c r="E35" s="31">
+        <v>200</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E36" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="31">
+        <v>200</v>
+      </c>
+      <c r="E37" s="31">
+        <v>200</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="31">
+        <v>200</v>
+      </c>
+      <c r="E38" s="31">
+        <v>200</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="31">
+        <v>200</v>
+      </c>
+      <c r="E39" s="31">
+        <v>200</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E40" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="31">
+        <v>200</v>
+      </c>
+      <c r="E41" s="31">
+        <v>200</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="31">
+        <v>200</v>
+      </c>
+      <c r="E42" s="31">
+        <v>200</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="31">
+        <v>200</v>
+      </c>
+      <c r="E43" s="31">
+        <v>200</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E44" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="31">
+        <v>200</v>
+      </c>
+      <c r="E46" s="31">
+        <v>200</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="31">
+        <v>200</v>
+      </c>
+      <c r="E47" s="31">
+        <v>200</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="31">
+        <v>200</v>
+      </c>
+      <c r="E48" s="31">
+        <v>200</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="31">
+        <v>200</v>
+      </c>
+      <c r="E49" s="31">
+        <v>200</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E50" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E51" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="31">
+        <v>200</v>
+      </c>
+      <c r="E52" s="31">
+        <v>200</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="31">
+        <v>200</v>
+      </c>
+      <c r="E53" s="31">
+        <v>200</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="31">
+        <v>200</v>
+      </c>
+      <c r="E54" s="31">
+        <v>200</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E55" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="31">
+        <v>200</v>
+      </c>
+      <c r="E56" s="31">
+        <v>200</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="31">
+        <v>200</v>
+      </c>
+      <c r="E57" s="31">
+        <v>200</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="31">
+        <v>200</v>
+      </c>
+      <c r="E58" s="31">
+        <v>200</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="31">
+        <v>200</v>
+      </c>
+      <c r="E59" s="31">
+        <v>200</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="31">
+        <v>200</v>
+      </c>
+      <c r="E60" s="31">
+        <v>200</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="31">
+        <v>200</v>
+      </c>
+      <c r="E61" s="31">
+        <v>200</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="31">
+        <v>200</v>
+      </c>
+      <c r="E62" s="31">
+        <v>200</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="31">
+        <v>200</v>
+      </c>
+      <c r="E63" s="31">
+        <v>200</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="31">
+        <v>200</v>
+      </c>
+      <c r="E64" s="31">
+        <v>200</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="31">
+        <v>200</v>
+      </c>
+      <c r="E65" s="31">
+        <v>200</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="31">
+        <v>200</v>
+      </c>
+      <c r="E67" s="31">
+        <v>200</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="32">
+        <v>200</v>
+      </c>
+      <c r="E68" s="32">
+        <v>200</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F72" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G72" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D73" s="31">
+        <v>8500.0000000000018</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F73" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G73" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D74" s="33">
+        <v>79218.127052545198</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G74" s="29">
+        <v>10781.872947454802</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="31">
+        <v>914.53201970444275</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F75" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G75" s="29">
+        <v>285.46798029555725</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="31">
+        <v>200</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F76" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G76" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" s="31">
+        <v>200</v>
+      </c>
+      <c r="E77" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G77" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="31">
+        <v>200</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G78" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D79" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F79" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G79" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G80" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="31">
+        <v>200</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G81" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="31">
+        <v>200</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G82" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" s="31">
+        <v>200</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G83" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G84" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" s="31">
+        <v>200</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G85" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D86" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F86" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G86" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" s="31">
+        <v>200</v>
+      </c>
+      <c r="E87" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G87" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88" s="31">
+        <v>200</v>
+      </c>
+      <c r="E88" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G88" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" s="31">
+        <v>200</v>
+      </c>
+      <c r="E89" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G89" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D90" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E90" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G90" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" s="31">
+        <v>200</v>
+      </c>
+      <c r="E91" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="F91" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G91" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D92" s="31">
+        <v>200</v>
+      </c>
+      <c r="E92" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="F92" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G92" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" s="31">
+        <v>200</v>
+      </c>
+      <c r="E93" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G93" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D94" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E94" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="F94" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G94" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" s="31">
+        <v>200</v>
+      </c>
+      <c r="E95" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="F95" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G95" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D96" s="31">
+        <v>200</v>
+      </c>
+      <c r="E96" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F96" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G96" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D97" s="31">
+        <v>200</v>
+      </c>
+      <c r="E97" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="F97" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G97" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B98" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E98" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="F98" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G98" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B99" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D99" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E99" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="F99" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G99" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D100" s="31">
+        <v>200</v>
+      </c>
+      <c r="E100" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G100" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B101" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" s="31">
+        <v>200</v>
+      </c>
+      <c r="E101" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G101" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D102" s="31">
+        <v>200</v>
+      </c>
+      <c r="E102" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="F102" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G102" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C103" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D103" s="31">
+        <v>200</v>
+      </c>
+      <c r="E103" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G103" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B104" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D104" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E104" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G104" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C105" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D105" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E105" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="F105" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G105" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B106" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D106" s="31">
+        <v>200</v>
+      </c>
+      <c r="E106" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F106" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G106" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D107" s="31">
+        <v>200</v>
+      </c>
+      <c r="E107" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="F107" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G107" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D108" s="31">
+        <v>200</v>
+      </c>
+      <c r="E108" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="F108" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G108" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D109" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E109" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="F109" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G109" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D110" s="31">
+        <v>200</v>
+      </c>
+      <c r="E110" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="F110" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G110" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D111" s="31">
+        <v>200</v>
+      </c>
+      <c r="E111" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="F111" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G111" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D112" s="31">
+        <v>200</v>
+      </c>
+      <c r="E112" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="F112" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G112" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B113" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D113" s="31">
+        <v>200</v>
+      </c>
+      <c r="E113" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="F113" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G113" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B114" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D114" s="31">
+        <v>200</v>
+      </c>
+      <c r="E114" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="F114" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G114" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B115" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C115" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D115" s="31">
+        <v>200</v>
+      </c>
+      <c r="E115" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="F115" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G115" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B116" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D116" s="31">
+        <v>200</v>
+      </c>
+      <c r="E116" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="F116" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G116" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B117" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D117" s="31">
+        <v>200</v>
+      </c>
+      <c r="E117" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="F117" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G117" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B118" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C118" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D118" s="31">
+        <v>200</v>
+      </c>
+      <c r="E118" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F118" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G118" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B119" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D119" s="31">
+        <v>200</v>
+      </c>
+      <c r="E119" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="F119" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G119" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B120" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D120" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E120" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="F120" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G120" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B121" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D121" s="31">
+        <v>200</v>
+      </c>
+      <c r="E121" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F121" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G121" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B122" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C122" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D122" s="31">
+        <v>200</v>
+      </c>
+      <c r="E122" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G122" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B123" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C123" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D123" s="31">
+        <v>914.53201970444275</v>
+      </c>
+      <c r="E123" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G123" s="31">
+        <v>714.53201970444275</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B124" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D124" s="31">
+        <v>200</v>
+      </c>
+      <c r="E124" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G124" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B125" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C125" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D125" s="31">
+        <v>200</v>
+      </c>
+      <c r="E125" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G125" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B126" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C126" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D126" s="31">
+        <v>200</v>
+      </c>
+      <c r="E126" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G126" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B127" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C127" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D127" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E127" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="F127" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G127" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B128" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D128" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E128" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G128" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B129" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C129" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D129" s="31">
+        <v>200</v>
+      </c>
+      <c r="E129" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="F129" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G129" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B130" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C130" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D130" s="31">
+        <v>200</v>
+      </c>
+      <c r="E130" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="F130" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G130" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B131" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C131" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D131" s="31">
+        <v>200</v>
+      </c>
+      <c r="E131" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="F131" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G131" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B132" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C132" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D132" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E132" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G132" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B133" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C133" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D133" s="31">
+        <v>200</v>
+      </c>
+      <c r="E133" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="F133" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G133" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B134" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C134" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D134" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E134" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="F134" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G134" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B135" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C135" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D135" s="31">
+        <v>200</v>
+      </c>
+      <c r="E135" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="F135" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G135" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B136" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C136" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D136" s="31">
+        <v>200</v>
+      </c>
+      <c r="E136" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="F136" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G136" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B137" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C137" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D137" s="31">
+        <v>200</v>
+      </c>
+      <c r="E137" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="F137" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G137" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B138" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C138" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D138" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E138" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="F138" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G138" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B139" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C139" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D139" s="31">
+        <v>200</v>
+      </c>
+      <c r="E139" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="F139" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G139" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B140" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C140" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D140" s="31">
+        <v>200</v>
+      </c>
+      <c r="E140" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="F140" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G140" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B141" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C141" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D141" s="31">
+        <v>200</v>
+      </c>
+      <c r="E141" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F141" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G141" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B142" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C142" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D142" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E142" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="F142" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G142" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B143" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C143" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D143" s="31">
+        <v>200</v>
+      </c>
+      <c r="E143" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="F143" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G143" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B144" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C144" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D144" s="31">
+        <v>200</v>
+      </c>
+      <c r="E144" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="F144" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G144" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B145" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C145" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D145" s="31">
+        <v>200</v>
+      </c>
+      <c r="E145" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F145" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G145" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B146" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C146" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D146" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E146" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F146" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G146" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B147" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C147" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D147" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E147" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="F147" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G147" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B148" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C148" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D148" s="31">
+        <v>200</v>
+      </c>
+      <c r="E148" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F148" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G148" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B149" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C149" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D149" s="31">
+        <v>200</v>
+      </c>
+      <c r="E149" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="F149" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G149" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B150" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C150" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D150" s="31">
+        <v>200</v>
+      </c>
+      <c r="E150" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="F150" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G150" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B151" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C151" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D151" s="31">
+        <v>200</v>
+      </c>
+      <c r="E151" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="F151" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G151" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B152" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C152" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D152" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E152" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="F152" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G152" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B153" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C153" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D153" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E153" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="F153" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G153" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B154" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C154" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D154" s="31">
+        <v>200</v>
+      </c>
+      <c r="E154" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="F154" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G154" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B155" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D155" s="31">
+        <v>200</v>
+      </c>
+      <c r="E155" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F155" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G155" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B156" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D156" s="31">
+        <v>200</v>
+      </c>
+      <c r="E156" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="F156" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G156" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B157" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C157" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D157" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E157" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F157" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G157" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B158" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C158" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D158" s="31">
+        <v>200</v>
+      </c>
+      <c r="E158" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="F158" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G158" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B159" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C159" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D159" s="31">
+        <v>200</v>
+      </c>
+      <c r="E159" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="F159" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G159" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B160" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C160" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D160" s="31">
+        <v>200</v>
+      </c>
+      <c r="E160" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="F160" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G160" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B161" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C161" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D161" s="31">
+        <v>200</v>
+      </c>
+      <c r="E161" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="F161" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G161" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B162" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C162" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D162" s="31">
+        <v>200</v>
+      </c>
+      <c r="E162" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="F162" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G162" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B163" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C163" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D163" s="31">
+        <v>200</v>
+      </c>
+      <c r="E163" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="F163" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G163" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B164" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C164" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D164" s="31">
+        <v>200</v>
+      </c>
+      <c r="E164" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="F164" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G164" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B165" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C165" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D165" s="31">
+        <v>200</v>
+      </c>
+      <c r="E165" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="F165" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G165" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B166" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C166" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D166" s="31">
+        <v>200</v>
+      </c>
+      <c r="E166" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="F166" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G166" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B167" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C167" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D167" s="31">
+        <v>200</v>
+      </c>
+      <c r="E167" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="F167" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G167" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B168" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C168" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D168" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E168" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="F168" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G168" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B169" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C169" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D169" s="31">
+        <v>200</v>
+      </c>
+      <c r="E169" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="F169" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G169" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B170" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C170" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D170" s="32">
+        <v>200</v>
+      </c>
+      <c r="E170" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="F170" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G170" s="32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEAFD64-C4B5-4BCC-AFEF-C368D9088E49}">
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="29">
+        <v>914.53201970444275</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29">
+        <v>3.6418269876297868</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0.37550806527439001</v>
+      </c>
+      <c r="H9" s="29">
+        <v>9.1206755358958169E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="29">
+        <v>200</v>
+      </c>
+      <c r="E10" s="29">
+        <v>-3.9613597184438922</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0.97214974755705263</v>
+      </c>
+      <c r="G10" s="29">
+        <v>3.9613597184438922</v>
+      </c>
+      <c r="H10" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="29">
+        <v>200</v>
+      </c>
+      <c r="E11" s="29">
+        <v>-4.4568161855493766</v>
+      </c>
+      <c r="F11" s="29">
+        <v>7.7527514566035904E-2</v>
+      </c>
+      <c r="G11" s="29">
+        <v>4.4568161855493766</v>
+      </c>
+      <c r="H11" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="29">
+        <v>200</v>
+      </c>
+      <c r="E12" s="29">
+        <v>-4.7918897900352677</v>
+      </c>
+      <c r="F12" s="29">
+        <v>-1.9840633830717991E-2</v>
+      </c>
+      <c r="G12" s="29">
+        <v>4.7918897900352677</v>
+      </c>
+      <c r="H12" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1200</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0.52164174584915268</v>
+      </c>
+      <c r="F13" s="29">
+        <v>5.5807314528028469</v>
+      </c>
+      <c r="G13" s="29">
+        <v>1E+30</v>
+      </c>
+      <c r="H13" s="29">
+        <v>0.52164174584915268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="29">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="29">
+        <v>3.4238394458757062</v>
+      </c>
+      <c r="F14" s="29">
+        <v>6.8145059515999904</v>
+      </c>
+      <c r="G14" s="29">
+        <v>1E+30</v>
+      </c>
+      <c r="H14" s="29">
+        <v>3.4238394458757062</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="29">
+        <v>200</v>
+      </c>
+      <c r="E15" s="29">
+        <v>-4.2341856857624967</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0.74417386629299997</v>
+      </c>
+      <c r="G15" s="29">
+        <v>4.2341856857624967</v>
+      </c>
+      <c r="H15" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="29">
+        <v>200</v>
+      </c>
+      <c r="E16" s="29">
+        <v>-6.287629182321961</v>
+      </c>
+      <c r="F16" s="29">
+        <v>-2.1165711792484387</v>
+      </c>
+      <c r="G16" s="29">
+        <v>6.287629182321961</v>
+      </c>
+      <c r="H16" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="29">
+        <v>200</v>
+      </c>
+      <c r="E17" s="29">
+        <v>-5.1543221265185863</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0.42502857866793775</v>
+      </c>
+      <c r="G17" s="29">
+        <v>5.1543221265185863</v>
+      </c>
+      <c r="H17" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="29">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="29">
+        <v>3.7756237136939661</v>
+      </c>
+      <c r="F18" s="29">
+        <v>7.0765900473091428</v>
+      </c>
+      <c r="G18" s="29">
+        <v>1E+30</v>
+      </c>
+      <c r="H18" s="29">
+        <v>3.7756237136939661</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="29">
+        <v>200</v>
+      </c>
+      <c r="E19" s="29">
+        <v>-6.4572215370317094</v>
+      </c>
+      <c r="F19" s="29">
+        <v>-1.0124210900088499</v>
+      </c>
+      <c r="G19" s="29">
+        <v>6.4572215370317094</v>
+      </c>
+      <c r="H19" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="29">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="29">
+        <v>2.3383228248848953</v>
+      </c>
+      <c r="F20" s="29">
+        <v>6.1147000706783423</v>
+      </c>
+      <c r="G20" s="29">
+        <v>1E+30</v>
+      </c>
+      <c r="H20" s="29">
+        <v>2.3383228248848953</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="29">
+        <v>200</v>
+      </c>
+      <c r="E21" s="29">
+        <v>-2.8089114133179072</v>
+      </c>
+      <c r="F21" s="29">
+        <v>1.209656297170131</v>
+      </c>
+      <c r="G21" s="29">
+        <v>2.8089114133179072</v>
+      </c>
+      <c r="H21" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="29">
+        <v>200</v>
+      </c>
+      <c r="E22" s="29">
+        <v>-1.1568120250781819</v>
+      </c>
+      <c r="F22" s="29">
+        <v>3.373046666431776</v>
+      </c>
+      <c r="G22" s="29">
+        <v>1.1568120250781819</v>
+      </c>
+      <c r="H22" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="29">
+        <v>200</v>
+      </c>
+      <c r="E23" s="29">
+        <v>-4.4502017617705532</v>
+      </c>
+      <c r="F23" s="29">
+        <v>-0.4675141201261539</v>
+      </c>
+      <c r="G23" s="29">
+        <v>4.4502017617705532</v>
+      </c>
+      <c r="H23" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="29">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="29">
+        <v>2.6483730764312745</v>
+      </c>
+      <c r="F24" s="29">
+        <v>6.3619602017483459</v>
+      </c>
+      <c r="G24" s="29">
+        <v>1E+30</v>
+      </c>
+      <c r="H24" s="29">
+        <v>2.6483730764312745</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="29">
+        <v>200</v>
+      </c>
+      <c r="E25" s="29">
+        <v>-0.20901431014389454</v>
+      </c>
+      <c r="F25" s="29">
+        <v>3.6391230733368403</v>
+      </c>
+      <c r="G25" s="29">
+        <v>0.20901431014389454</v>
+      </c>
+      <c r="H25" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="29">
+        <v>200</v>
+      </c>
+      <c r="E26" s="29">
+        <v>-4.4639646002292617</v>
+      </c>
+      <c r="F26" s="29">
+        <v>1.2140562942772775</v>
+      </c>
+      <c r="G26" s="29">
+        <v>4.4639646002292617</v>
+      </c>
+      <c r="H26" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="29">
+        <v>200</v>
+      </c>
+      <c r="E27" s="29">
+        <v>-5.0312372873381754</v>
+      </c>
+      <c r="F27" s="29">
+        <v>-0.84223924984283371</v>
+      </c>
+      <c r="G27" s="29">
+        <v>5.0312372873381754</v>
+      </c>
+      <c r="H27" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="29">
+        <v>1200</v>
+      </c>
+      <c r="E28" s="29">
+        <v>1.3543064863800978</v>
+      </c>
+      <c r="F28" s="29">
+        <v>5.2114138870717355</v>
+      </c>
+      <c r="G28" s="29">
+        <v>1E+30</v>
+      </c>
+      <c r="H28" s="29">
+        <v>1.3543064863800978</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="29">
+        <v>200</v>
+      </c>
+      <c r="E29" s="29">
+        <v>-3.8107227166626072</v>
+      </c>
+      <c r="F29" s="29">
+        <v>1.1766068526037969</v>
+      </c>
+      <c r="G29" s="29">
+        <v>3.8107227166626072</v>
+      </c>
+      <c r="H29" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="29">
+        <v>200</v>
+      </c>
+      <c r="E30" s="29">
+        <v>-3.4116972857149372</v>
+      </c>
+      <c r="F30" s="29">
+        <v>0.89391097552225318</v>
+      </c>
+      <c r="G30" s="29">
+        <v>3.4116972857149372</v>
+      </c>
+      <c r="H30" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="29">
+        <v>200</v>
+      </c>
+      <c r="E31" s="29">
+        <v>-1.5161492251647379</v>
+      </c>
+      <c r="F31" s="29">
+        <v>3.3366300859380118</v>
+      </c>
+      <c r="G31" s="29">
+        <v>1.5161492251647379</v>
+      </c>
+      <c r="H31" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="29">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="29">
+        <v>1.1982419012099443</v>
+      </c>
+      <c r="F32" s="29">
+        <v>5.2168096116979825</v>
+      </c>
+      <c r="G32" s="29">
+        <v>1E+30</v>
+      </c>
+      <c r="H32" s="29">
+        <v>1.1982419012099443</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="29">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="29">
+        <v>3.4224841140719966</v>
+      </c>
+      <c r="F33" s="29">
+        <v>7.0553410844908768</v>
+      </c>
+      <c r="G33" s="29">
+        <v>1E+30</v>
+      </c>
+      <c r="H33" s="29">
+        <v>3.4224841140719966</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="29">
+        <v>200</v>
+      </c>
+      <c r="E34" s="29">
+        <v>-6.5176317210912593</v>
+      </c>
+      <c r="F34" s="29">
+        <v>-1.9160128918940131</v>
+      </c>
+      <c r="G34" s="29">
+        <v>6.5176317210912593</v>
+      </c>
+      <c r="H34" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="29">
+        <v>200</v>
+      </c>
+      <c r="E35" s="29">
+        <v>-4.3552164883024282</v>
+      </c>
+      <c r="F35" s="29">
+        <v>0.24640234089481794</v>
+      </c>
+      <c r="G35" s="29">
+        <v>4.3552164883024282</v>
+      </c>
+      <c r="H35" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="29">
+        <v>200</v>
+      </c>
+      <c r="E36" s="29">
+        <v>-4.1812532225687065</v>
+      </c>
+      <c r="F36" s="29">
+        <v>0.48315572710491494</v>
+      </c>
+      <c r="G36" s="29">
+        <v>4.1812532225687065</v>
+      </c>
+      <c r="H36" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="29">
+        <v>200</v>
+      </c>
+      <c r="E37" s="29">
+        <v>-5.2250724755590943</v>
+      </c>
+      <c r="F37" s="29">
+        <v>-1.0540144724855764</v>
+      </c>
+      <c r="G37" s="29">
+        <v>5.2250724755590943</v>
+      </c>
+      <c r="H37" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="29">
+        <v>1200</v>
+      </c>
+      <c r="E38" s="29">
+        <v>1.5670938864324389</v>
+      </c>
+      <c r="F38" s="29">
+        <v>5.2627409773276952</v>
+      </c>
+      <c r="G38" s="29">
+        <v>1E+30</v>
+      </c>
+      <c r="H38" s="29">
+        <v>1.5670938864324389</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="29">
+        <v>1200</v>
+      </c>
+      <c r="E39" s="29">
+        <v>1.0127637725804595</v>
+      </c>
+      <c r="F39" s="29">
+        <v>5.4170422231376563</v>
+      </c>
+      <c r="G39" s="29">
+        <v>1E+30</v>
+      </c>
+      <c r="H39" s="29">
+        <v>1.0127637725804595</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="29">
+        <v>200</v>
+      </c>
+      <c r="E40" s="29">
+        <v>-2.61553182295938</v>
+      </c>
+      <c r="F40" s="29">
+        <v>2.3717977463070241</v>
+      </c>
+      <c r="G40" s="29">
+        <v>2.61553182295938</v>
+      </c>
+      <c r="H40" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="29">
+        <v>200</v>
+      </c>
+      <c r="E41" s="29">
+        <v>-0.95325878093639915</v>
+      </c>
+      <c r="F41" s="29">
+        <v>2.562987965740632</v>
+      </c>
+      <c r="G41" s="29">
+        <v>0.95325878093639915</v>
+      </c>
+      <c r="H41" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="29">
+        <v>200</v>
+      </c>
+      <c r="E42" s="29">
+        <v>-0.11075106007873477</v>
+      </c>
+      <c r="F42" s="29">
+        <v>4.311467424900286</v>
+      </c>
+      <c r="G42" s="29">
+        <v>0.11075106007873477</v>
+      </c>
+      <c r="H42" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="29">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="29">
+        <v>1.1002058590856358</v>
+      </c>
+      <c r="F43" s="29">
+        <v>5.2981739137918993</v>
+      </c>
+      <c r="G43" s="29">
+        <v>1E+30</v>
+      </c>
+      <c r="H43" s="29">
+        <v>1.1002058590856358</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="29">
+        <v>200</v>
+      </c>
+      <c r="E44" s="29">
+        <v>-7.7716076657695528</v>
+      </c>
+      <c r="F44" s="29">
+        <v>-2.5510576490194694</v>
+      </c>
+      <c r="G44" s="29">
+        <v>7.7716076657695528</v>
+      </c>
+      <c r="H44" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="29">
+        <v>200</v>
+      </c>
+      <c r="E45" s="29">
+        <v>-4.7788884766855002</v>
+      </c>
+      <c r="F45" s="29">
+        <v>-0.72444069735381333</v>
+      </c>
+      <c r="G45" s="29">
+        <v>4.7788884766855002</v>
+      </c>
+      <c r="H45" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="29">
+        <v>200</v>
+      </c>
+      <c r="E46" s="29">
+        <v>-5.0273438512625761</v>
+      </c>
+      <c r="F46" s="29">
+        <v>-0.30014478111257858</v>
+      </c>
+      <c r="G46" s="29">
+        <v>5.0273438512625761</v>
+      </c>
+      <c r="H46" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="29">
+        <v>200</v>
+      </c>
+      <c r="E47" s="29">
+        <v>-5.5924535721836568</v>
+      </c>
+      <c r="F47" s="29">
+        <v>-1.3227253797901142</v>
+      </c>
+      <c r="G47" s="29">
+        <v>5.5924535721836568</v>
+      </c>
+      <c r="H47" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="29">
+        <v>200</v>
+      </c>
+      <c r="E48" s="29">
+        <v>-1.2046546257532607</v>
+      </c>
+      <c r="F48" s="29">
+        <v>3.1996238248039361</v>
+      </c>
+      <c r="G48" s="29">
+        <v>1.2046546257532607</v>
+      </c>
+      <c r="H48" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="29">
+        <v>200</v>
+      </c>
+      <c r="E49" s="29">
+        <v>-3.2602302630403774</v>
+      </c>
+      <c r="F49" s="29">
+        <v>0.39056674180032758</v>
+      </c>
+      <c r="G49" s="29">
+        <v>3.2602302630403774</v>
+      </c>
+      <c r="H49" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="29">
+        <v>200</v>
+      </c>
+      <c r="E50" s="29">
+        <v>-6.1281059851761466</v>
+      </c>
+      <c r="F50" s="29">
+        <v>-0.76403569305146846</v>
+      </c>
+      <c r="G50" s="29">
+        <v>6.1281059851761466</v>
+      </c>
+      <c r="H50" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="29">
+        <v>200</v>
+      </c>
+      <c r="E51" s="29">
+        <v>-0.73902009941090541</v>
+      </c>
+      <c r="F51" s="29">
+        <v>2.4453360104624409</v>
+      </c>
+      <c r="G51" s="29">
+        <v>0.73902009941090541</v>
+      </c>
+      <c r="H51" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" s="29">
+        <v>200</v>
+      </c>
+      <c r="E52" s="29">
+        <v>-5.0514604311198728</v>
+      </c>
+      <c r="F52" s="29">
+        <v>-0.9073124796790637</v>
+      </c>
+      <c r="G52" s="29">
+        <v>5.0514604311198728</v>
+      </c>
+      <c r="H52" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" s="29">
+        <v>200</v>
+      </c>
+      <c r="E53" s="29">
+        <v>-1.4142919584642943</v>
+      </c>
+      <c r="F53" s="29">
+        <v>2.8464662167183263</v>
+      </c>
+      <c r="G53" s="29">
+        <v>1.4142919584642943</v>
+      </c>
+      <c r="H53" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" s="29">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="29">
+        <v>1.2026691951020547</v>
+      </c>
+      <c r="F54" s="29">
+        <v>5.3737271981755725</v>
+      </c>
+      <c r="G54" s="29">
+        <v>1E+30</v>
+      </c>
+      <c r="H54" s="29">
+        <v>1.2026691951020547</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55" s="29">
+        <v>200</v>
+      </c>
+      <c r="E55" s="29">
+        <v>-3.5372908170449815</v>
+      </c>
+      <c r="F55" s="29">
+        <v>0.44539682459942753</v>
+      </c>
+      <c r="G55" s="29">
+        <v>3.5372908170449815</v>
+      </c>
+      <c r="H55" s="29">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="27">
+        <v>200</v>
+      </c>
+      <c r="E56" s="27">
+        <v>-6.4048698720592618</v>
+      </c>
+      <c r="F56" s="27">
+        <v>-1.9288312838147874</v>
+      </c>
+      <c r="G56" s="27">
+        <v>6.4048698720592618</v>
+      </c>
+      <c r="H56" s="27">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="G59" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="H59" s="34" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G60" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61" s="29">
+        <v>8500.0000000000018</v>
+      </c>
+      <c r="E61" s="29">
+        <v>10.764020653092967</v>
+      </c>
+      <c r="F61" s="29">
+        <v>8500</v>
+      </c>
+      <c r="G61" s="29">
+        <v>96.583333333330188</v>
+      </c>
+      <c r="H61" s="29">
+        <v>241.7500000000031</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" s="27">
+        <v>79218.127052545198</v>
+      </c>
+      <c r="E62" s="27">
+        <v>0</v>
+      </c>
+      <c r="F62" s="27">
+        <v>90000</v>
+      </c>
+      <c r="G62" s="27">
+        <v>1E+30</v>
+      </c>
+      <c r="H62" s="27">
+        <v>10781.872947454871</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD547A8C-8E3B-4CB7-A5E7-8293E44AA234}">
+  <dimension ref="A1:J60"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="30">
+        <v>92358.641169097406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="F11" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="31">
+        <v>914.53201970444275</v>
+      </c>
+      <c r="F13" s="31">
+        <v>200</v>
+      </c>
+      <c r="G13" s="31">
+        <v>89756.439176212138</v>
+      </c>
+      <c r="I13" s="31">
+        <v>914.53201970495888</v>
+      </c>
+      <c r="J13" s="31">
+        <v>92358.641169099297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="31">
+        <v>200</v>
+      </c>
+      <c r="F14" s="31">
+        <v>200</v>
+      </c>
+      <c r="G14" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I14" s="31">
+        <v>199.99999999973014</v>
+      </c>
+      <c r="J14" s="31">
+        <v>92358.641169097144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="31">
+        <v>200</v>
+      </c>
+      <c r="F15" s="31">
+        <v>200</v>
+      </c>
+      <c r="G15" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I15" s="31">
+        <v>200.00000000027205</v>
+      </c>
+      <c r="J15" s="31">
+        <v>92358.641169097435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="31">
+        <v>200</v>
+      </c>
+      <c r="F16" s="31">
+        <v>200</v>
+      </c>
+      <c r="G16" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I16" s="31">
+        <v>200.00000000027902</v>
+      </c>
+      <c r="J16" s="31">
+        <v>92358.641169097406</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="31">
+        <v>200</v>
+      </c>
+      <c r="G17" s="31">
+        <v>86777.909716294555</v>
+      </c>
+      <c r="I17" s="31">
+        <v>1199.9999999993438</v>
+      </c>
+      <c r="J17" s="31">
+        <v>92358.641169093738</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F18" s="31">
+        <v>200</v>
+      </c>
+      <c r="G18" s="31">
+        <v>85544.135217497402</v>
+      </c>
+      <c r="I18" s="31">
+        <v>1199.999999998051</v>
+      </c>
+      <c r="J18" s="31">
+        <v>92358.641169084134</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="31">
+        <v>200</v>
+      </c>
+      <c r="F19" s="31">
+        <v>200</v>
+      </c>
+      <c r="G19" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I19" s="31">
+        <v>199.99999999936679</v>
+      </c>
+      <c r="J19" s="31">
+        <v>92358.64116909694</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="31">
+        <v>200</v>
+      </c>
+      <c r="F20" s="31">
+        <v>200</v>
+      </c>
+      <c r="G20" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I20" s="31">
+        <v>199.99999999961977</v>
+      </c>
+      <c r="J20" s="31">
+        <v>92358.641169098191</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="31">
+        <v>200</v>
+      </c>
+      <c r="F21" s="31">
+        <v>200</v>
+      </c>
+      <c r="G21" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I21" s="31">
+        <v>199.99999999995791</v>
+      </c>
+      <c r="J21" s="31">
+        <v>92358.641169097376</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F22" s="31">
+        <v>200</v>
+      </c>
+      <c r="G22" s="31">
+        <v>85282.051121788245</v>
+      </c>
+      <c r="I22" s="31">
+        <v>1199.9999999975237</v>
+      </c>
+      <c r="J22" s="31">
+        <v>92358.641169079885</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="31">
+        <v>200</v>
+      </c>
+      <c r="F23" s="31">
+        <v>200</v>
+      </c>
+      <c r="G23" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I23" s="31">
+        <v>200.00000000024454</v>
+      </c>
+      <c r="J23" s="31">
+        <v>92358.641169097144</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F24" s="31">
+        <v>200</v>
+      </c>
+      <c r="G24" s="31">
+        <v>86243.941098419047</v>
+      </c>
+      <c r="I24" s="31">
+        <v>1199.9999999981671</v>
+      </c>
+      <c r="J24" s="31">
+        <v>92358.641169086201</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="31">
+        <v>200</v>
+      </c>
+      <c r="F25" s="31">
+        <v>200</v>
+      </c>
+      <c r="G25" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I25" s="31">
+        <v>199.99999999920092</v>
+      </c>
+      <c r="J25" s="31">
+        <v>92358.641169096431</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="31">
+        <v>200</v>
+      </c>
+      <c r="F26" s="31">
+        <v>200</v>
+      </c>
+      <c r="G26" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I26" s="31">
+        <v>200.00000000074346</v>
+      </c>
+      <c r="J26" s="31">
+        <v>92358.641169099908</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="31">
+        <v>200</v>
+      </c>
+      <c r="F27" s="31">
+        <v>200</v>
+      </c>
+      <c r="G27" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I27" s="31">
+        <v>200.0000000005457</v>
+      </c>
+      <c r="J27" s="31">
+        <v>92358.641169097144</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F28" s="31">
+        <v>200</v>
+      </c>
+      <c r="G28" s="31">
+        <v>85996.68096734905</v>
+      </c>
+      <c r="I28" s="31">
+        <v>1200</v>
+      </c>
+      <c r="J28" s="31">
+        <v>92358.641169097406</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="31">
+        <v>200</v>
+      </c>
+      <c r="F29" s="31">
+        <v>200</v>
+      </c>
+      <c r="G29" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I29" s="31">
+        <v>199.9999999989366</v>
+      </c>
+      <c r="J29" s="31">
+        <v>92358.641169093535</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="31">
+        <v>200</v>
+      </c>
+      <c r="F30" s="31">
+        <v>200</v>
+      </c>
+      <c r="G30" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I30" s="31">
+        <v>199.99999999994139</v>
+      </c>
+      <c r="J30" s="31">
+        <v>92358.641169097318</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="31">
+        <v>200</v>
+      </c>
+      <c r="F31" s="31">
+        <v>200</v>
+      </c>
+      <c r="G31" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I31" s="31">
+        <v>200.00000000037861</v>
+      </c>
+      <c r="J31" s="31">
+        <v>92358.641169097085</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="31">
+        <v>200</v>
+      </c>
+      <c r="G32" s="31">
+        <v>87147.227282025662</v>
+      </c>
+      <c r="I32" s="31">
+        <v>1199.9999999991801</v>
+      </c>
+      <c r="J32" s="31">
+        <v>92358.641169093127</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="31">
+        <v>200</v>
+      </c>
+      <c r="F33" s="31">
+        <v>200</v>
+      </c>
+      <c r="G33" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I33" s="31">
+        <v>200.00000000007853</v>
+      </c>
+      <c r="J33" s="31">
+        <v>92358.641169097493</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="31">
+        <v>200</v>
+      </c>
+      <c r="F34" s="31">
+        <v>200</v>
+      </c>
+      <c r="G34" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I34" s="31">
+        <v>199.99999999926786</v>
+      </c>
+      <c r="J34" s="31">
+        <v>92358.641169096736</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="31">
+        <v>200</v>
+      </c>
+      <c r="F35" s="31">
+        <v>200</v>
+      </c>
+      <c r="G35" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I35" s="31">
+        <v>199.99999999959653</v>
+      </c>
+      <c r="J35" s="31">
+        <v>92358.641169096052</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F36" s="31">
+        <v>200</v>
+      </c>
+      <c r="G36" s="31">
+        <v>87141.831557399404</v>
+      </c>
+      <c r="I36" s="31">
+        <v>1200</v>
+      </c>
+      <c r="J36" s="31">
+        <v>92358.641169097406</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F37" s="31">
+        <v>200</v>
+      </c>
+      <c r="G37" s="31">
+        <v>85303.300084606512</v>
+      </c>
+      <c r="I37" s="31">
+        <v>1200</v>
+      </c>
+      <c r="J37" s="31">
+        <v>92358.641169097406</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="31">
+        <v>200</v>
+      </c>
+      <c r="F38" s="31">
+        <v>200</v>
+      </c>
+      <c r="G38" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I38" s="31">
+        <v>199.99999999924685</v>
+      </c>
+      <c r="J38" s="31">
+        <v>92358.641169098846</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="31">
+        <v>200</v>
+      </c>
+      <c r="F39" s="31">
+        <v>200</v>
+      </c>
+      <c r="G39" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I39" s="31">
+        <v>199.99999999924685</v>
+      </c>
+      <c r="J39" s="31">
+        <v>92358.641169097202</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="31">
+        <v>200</v>
+      </c>
+      <c r="F40" s="31">
+        <v>200</v>
+      </c>
+      <c r="G40" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I40" s="31">
+        <v>200.00000000038619</v>
+      </c>
+      <c r="J40" s="31">
+        <v>92358.64116909758</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="31">
+        <v>200</v>
+      </c>
+      <c r="F41" s="31">
+        <v>200</v>
+      </c>
+      <c r="G41" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I41" s="31">
+        <v>199.99999999961977</v>
+      </c>
+      <c r="J41" s="31">
+        <v>92358.641169097798</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F42" s="31">
+        <v>200</v>
+      </c>
+      <c r="G42" s="31">
+        <v>87095.900191769702</v>
+      </c>
+      <c r="I42" s="31">
+        <v>1200</v>
+      </c>
+      <c r="J42" s="31">
+        <v>92358.641169097406</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="31">
+        <v>200</v>
+      </c>
+      <c r="G43" s="31">
+        <v>86941.598945959748</v>
+      </c>
+      <c r="I43" s="31">
+        <v>1200</v>
+      </c>
+      <c r="J43" s="31">
+        <v>92358.641169097406</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="31">
+        <v>200</v>
+      </c>
+      <c r="F44" s="31">
+        <v>200</v>
+      </c>
+      <c r="G44" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I44" s="31">
+        <v>200.00000000007853</v>
+      </c>
+      <c r="J44" s="31">
+        <v>92358.64116909758</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="31">
+        <v>200</v>
+      </c>
+      <c r="F45" s="31">
+        <v>200</v>
+      </c>
+      <c r="G45" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I45" s="31">
+        <v>199.99999999933738</v>
+      </c>
+      <c r="J45" s="31">
+        <v>92358.641169095717</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="31">
+        <v>200</v>
+      </c>
+      <c r="F46" s="31">
+        <v>200</v>
+      </c>
+      <c r="G46" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I46" s="31">
+        <v>199.99999999998229</v>
+      </c>
+      <c r="J46" s="31">
+        <v>92358.641169097333</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F47" s="31">
+        <v>200</v>
+      </c>
+      <c r="G47" s="31">
+        <v>87060.467255305499</v>
+      </c>
+      <c r="I47" s="31">
+        <v>1199.9999999989832</v>
+      </c>
+      <c r="J47" s="31">
+        <v>92358.641169092021</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="31">
+        <v>200</v>
+      </c>
+      <c r="F48" s="31">
+        <v>200</v>
+      </c>
+      <c r="G48" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I48" s="31">
+        <v>199.9999999997562</v>
+      </c>
+      <c r="J48" s="31">
+        <v>92358.641169098031</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="31">
+        <v>200</v>
+      </c>
+      <c r="F49" s="31">
+        <v>200</v>
+      </c>
+      <c r="G49" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I49" s="31">
+        <v>199.99999999981168</v>
+      </c>
+      <c r="J49" s="31">
+        <v>92358.641169097536</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="31">
+        <v>200</v>
+      </c>
+      <c r="F50" s="31">
+        <v>200</v>
+      </c>
+      <c r="G50" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I50" s="31">
+        <v>199.99999999983845</v>
+      </c>
+      <c r="J50" s="31">
+        <v>92358.641169097464</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" s="31">
+        <v>200</v>
+      </c>
+      <c r="F51" s="31">
+        <v>200</v>
+      </c>
+      <c r="G51" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I51" s="31">
+        <v>199.99999999960104</v>
+      </c>
+      <c r="J51" s="31">
+        <v>92358.641169097944</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="31">
+        <v>200</v>
+      </c>
+      <c r="F52" s="31">
+        <v>200</v>
+      </c>
+      <c r="G52" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I52" s="31">
+        <v>200.00000000014671</v>
+      </c>
+      <c r="J52" s="31">
+        <v>92358.641169097871</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" s="31">
+        <v>200</v>
+      </c>
+      <c r="F53" s="31">
+        <v>200</v>
+      </c>
+      <c r="G53" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I53" s="31">
+        <v>200.00000000000537</v>
+      </c>
+      <c r="J53" s="31">
+        <v>92358.641169097406</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="31">
+        <v>200</v>
+      </c>
+      <c r="F54" s="31">
+        <v>200</v>
+      </c>
+      <c r="G54" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I54" s="31">
+        <v>200.00000000013139</v>
+      </c>
+      <c r="J54" s="31">
+        <v>92358.641169097304</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="31">
+        <v>200</v>
+      </c>
+      <c r="F55" s="31">
+        <v>200</v>
+      </c>
+      <c r="G55" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I55" s="31">
+        <v>199.99999999982785</v>
+      </c>
+      <c r="J55" s="31">
+        <v>92358.641169096984</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="31">
+        <v>200</v>
+      </c>
+      <c r="F56" s="31">
+        <v>200</v>
+      </c>
+      <c r="G56" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I56" s="31">
+        <v>199.99999999893694</v>
+      </c>
+      <c r="J56" s="31">
+        <v>92358.64116909838</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="31">
+        <v>200</v>
+      </c>
+      <c r="F57" s="31">
+        <v>200</v>
+      </c>
+      <c r="G57" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I57" s="31">
+        <v>199.9999999996875</v>
+      </c>
+      <c r="J57" s="31">
+        <v>92358.641169096518</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="31">
+        <v>1200</v>
+      </c>
+      <c r="F58" s="31">
+        <v>200</v>
+      </c>
+      <c r="G58" s="31">
+        <v>86984.913970921829</v>
+      </c>
+      <c r="I58" s="31">
+        <v>1200</v>
+      </c>
+      <c r="J58" s="31">
+        <v>92358.641169097406</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" s="31">
+        <v>200</v>
+      </c>
+      <c r="F59" s="31">
+        <v>200</v>
+      </c>
+      <c r="G59" s="31">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I59" s="31">
+        <v>199.99999999956248</v>
+      </c>
+      <c r="J59" s="31">
+        <v>92358.641169097202</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" s="32">
+        <v>200</v>
+      </c>
+      <c r="F60" s="32">
+        <v>200</v>
+      </c>
+      <c r="G60" s="32">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I60" s="32">
+        <v>200.00000000036744</v>
+      </c>
+      <c r="J60" s="32">
+        <v>92358.641169096692</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505D2D13-E62A-4B10-A109-D38EB2E232F2}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37278,7 +43606,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>914.53201970444275</v>
       </c>
       <c r="D2" s="14">
         <f>CC!B2</f>
@@ -37318,7 +43646,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D3" s="14">
         <f>CC!B3</f>
@@ -37346,7 +43674,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D4" s="14">
         <f>CC!B4</f>
@@ -37384,7 +43712,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D5" s="14">
         <f>CC!B5</f>
@@ -37404,15 +43732,15 @@
       </c>
       <c r="H5" s="25">
         <f>SUMPRODUCT(C2:C49,G2:G49)</f>
-        <v>94.863512781900241</v>
-      </c>
-      <c r="I5" s="8">
+        <v>92358.641169097406</v>
+      </c>
+      <c r="I5" s="36">
         <f>SUMPRODUCT(D2:D49,C2:C49)</f>
-        <v>19.357916666666664</v>
+        <v>8500.0000000000018</v>
       </c>
       <c r="J5" s="8">
         <f>SUMPRODUCT(E2:E49,C2:C49)</f>
-        <v>172.4420833333333</v>
+        <v>79218.127052545198</v>
       </c>
       <c r="K5" s="21"/>
     </row>
@@ -37425,7 +43753,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D6" s="14">
         <f>CC!B6</f>
@@ -37453,7 +43781,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D7" s="14">
         <f>CC!B7</f>
@@ -37481,7 +43809,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D8" s="14">
         <f>CC!B8</f>
@@ -37509,7 +43837,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D9" s="14">
         <f>CC!B9</f>
@@ -37537,7 +43865,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D10" s="14">
         <f>CC!B10</f>
@@ -37565,7 +43893,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D11" s="14">
         <f>CC!B11</f>
@@ -37593,7 +43921,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D12" s="14">
         <f>CC!B12</f>
@@ -37621,7 +43949,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D13" s="14">
         <f>CC!B13</f>
@@ -37649,7 +43977,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D14" s="14">
         <f>CC!B14</f>
@@ -37677,7 +44005,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D15" s="14">
         <f>CC!B15</f>
@@ -37705,7 +44033,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D16" s="14">
         <f>CC!B16</f>
@@ -37733,7 +44061,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D17" s="14">
         <f>CC!B17</f>
@@ -37761,7 +44089,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D18" s="14">
         <f>CC!B18</f>
@@ -37789,7 +44117,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D19" s="14">
         <f>CC!B19</f>
@@ -37817,7 +44145,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D20" s="14">
         <f>CC!B20</f>
@@ -37845,7 +44173,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D21" s="14">
         <f>CC!B21</f>
@@ -37873,7 +44201,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D22" s="14">
         <f>CC!B22</f>
@@ -37901,7 +44229,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D23" s="14">
         <f>CC!B23</f>
@@ -37929,7 +44257,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D24" s="14">
         <f>CC!B24</f>
@@ -37957,7 +44285,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D25" s="14">
         <f>CC!B25</f>
@@ -37985,7 +44313,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D26" s="14">
         <f>CC!B26</f>
@@ -38013,7 +44341,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D27" s="14">
         <f>CC!B27</f>
@@ -38041,7 +44369,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D28" s="14">
         <f>CC!B28</f>
@@ -38069,7 +44397,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D29" s="14">
         <f>CC!B29</f>
@@ -38097,7 +44425,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D30" s="14">
         <f>CC!B30</f>
@@ -38125,7 +44453,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D31" s="14">
         <f>CC!B31</f>
@@ -38153,7 +44481,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D32" s="14">
         <f>CC!B32</f>
@@ -38181,7 +44509,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D33" s="14">
         <f>CC!B33</f>
@@ -38209,7 +44537,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D34" s="14">
         <f>CC!B34</f>
@@ -38237,7 +44565,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D35" s="14">
         <f>CC!B35</f>
@@ -38265,7 +44593,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D36" s="14">
         <f>CC!B36</f>
@@ -38293,7 +44621,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D37" s="14">
         <f>CC!B37</f>
@@ -38321,7 +44649,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D38" s="14">
         <f>CC!B38</f>
@@ -38349,7 +44677,7 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D39" s="14">
         <f>CC!B39</f>
@@ -38377,7 +44705,7 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D40" s="14">
         <f>CC!B40</f>
@@ -38405,7 +44733,7 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D41" s="14">
         <f>CC!B41</f>
@@ -38433,7 +44761,7 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D42" s="14">
         <f>CC!B42</f>
@@ -38461,7 +44789,7 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D43" s="14">
         <f>CC!B43</f>
@@ -38489,7 +44817,7 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D44" s="14">
         <f>CC!B44</f>
@@ -38517,7 +44845,7 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D45" s="14">
         <f>CC!B45</f>
@@ -38545,7 +44873,7 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D46" s="14">
         <f>CC!B46</f>
@@ -38573,7 +44901,7 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D47" s="14">
         <f>CC!B47</f>
@@ -38601,7 +44929,7 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D48" s="14">
         <f>CC!B48</f>
@@ -38629,7 +44957,7 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D49" s="14">
         <f>CC!B49</f>
